--- a/src/libraries/data/codice_giustificativo_dipendenti.xlsx
+++ b/src/libraries/data/codice_giustificativo_dipendenti.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.ferri/Python/perseo/fastprototyping/toolkits/Zucchetti/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.piccione/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3355E2EA-28C0-0644-AFD3-145BDEF20140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0331D3AD-C8CC-1449-8B07-EFF481A17775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="860" windowWidth="33140" windowHeight="21380" xr2:uid="{64249117-92AE-4101-BE7A-2F36848E95F5}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{64249117-92AE-4101-BE7A-2F36848E95F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>FROM_DIPENDENTI IN CLOUD</t>
   </si>
@@ -118,35 +119,92 @@
     <t>Presenza effettiva</t>
   </si>
   <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Permessi speciali Maternità</t>
+  </si>
+  <si>
+    <t>Permessi per visita</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Paternità Facoltativa</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <r>
+      <t>Congedo Obbligatorio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Padre</t>
+    </r>
+  </si>
+  <si>
+    <t>Malattia figlio 3 + anni</t>
+  </si>
+  <si>
+    <t>Permessi per Studio</t>
+  </si>
+  <si>
+    <t>Festività</t>
+  </si>
+  <si>
+    <t>Malattia figlio  &lt; 3 anni</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Congedo Parentale  ORARIO</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Trasferta ITALIA</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Permessi L.104  GIORNI</t>
+  </si>
+  <si>
+    <t>Congedo Parentale</t>
+  </si>
+  <si>
+    <t>Permessi Ex Festività</t>
+  </si>
+  <si>
     <t>01</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>Permessi speciali Maternità</t>
-  </si>
-  <si>
-    <t>Permessi per visita</t>
-  </si>
-  <si>
-    <t>Congedo Parentale</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>Paternità Facoltativa</t>
-  </si>
-  <si>
-    <t>Congedo Obbligatorio Padre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +228,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
@@ -237,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -383,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE12DE7-A468-4394-9CEA-A48B8129B92A}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,7 +701,7 @@
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -663,12 +728,12 @@
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
@@ -676,34 +741,98 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/libraries/data/codice_giustificativo_dipendenti.xlsx
+++ b/src/libraries/data/codice_giustificativo_dipendenti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.piccione/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s.ferri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0331D3AD-C8CC-1449-8B07-EFF481A17775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07169F0D-5B55-1746-A7F0-75CEEDBEDB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{64249117-92AE-4101-BE7A-2F36848E95F5}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="37440" windowHeight="23500" xr2:uid="{64249117-92AE-4101-BE7A-2F36848E95F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Festività</t>
   </si>
   <si>
-    <t>Malattia figlio  &lt; 3 anni</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>Malattia figlio &lt; 3 anni</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="159" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -757,10 +757,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,18 +773,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,12 +808,12 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
@@ -821,15 +821,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>30</v>
